--- a/AudioMapperUSB-BOM.xlsx
+++ b/AudioMapperUSB-BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="137">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -76,19 +76,19 @@
     <t xml:space="preserve">10 uF</t>
   </si>
   <si>
-    <t xml:space="preserve">C2,C1,C6,C4,C19,C21,C24,C27,C30,C31,C36,C42,C41</t>
+    <t xml:space="preserve">C2,C1,C6,C4,C19,C21,C24,C27,C30,C31,C36,C42,C41,C29,C32</t>
   </si>
   <si>
     <t xml:space="preserve">AudioMapperUSB:CP_1206_HandSoldering</t>
   </si>
   <si>
-    <t xml:space="preserve">C7171</t>
+    <t xml:space="preserve"> C7171</t>
   </si>
   <si>
     <t xml:space="preserve">1 uF</t>
   </si>
   <si>
-    <t xml:space="preserve">C3,C8,C10,C7,C20,C25,C26,C28,C29,C5,C32,C34,C33,C35,C9,C43,C44</t>
+    <t xml:space="preserve">C3,C8,C10,C7,C20,C25,C28,C5,C34,C33,C9,C43,C44,C47,C48,C26</t>
   </si>
   <si>
     <t xml:space="preserve">C28323</t>
@@ -97,12 +97,30 @@
     <t xml:space="preserve">22 pF</t>
   </si>
   <si>
-    <t xml:space="preserve">C38,C40,C39,C37</t>
+    <t xml:space="preserve">C38,C37</t>
   </si>
   <si>
     <t xml:space="preserve">C1804</t>
   </si>
   <si>
+    <t xml:space="preserve">100 pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C40,C39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C46,C45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitors_THT:CP_Radial_D10.0mm_P5.00mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED</t>
   </si>
   <si>
@@ -136,13 +154,13 @@
     <t xml:space="preserve">Connectors:USB_B</t>
   </si>
   <si>
-    <t xml:space="preserve">Conn_Coaxial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J12,J13,J14,J15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connectors:SMA_THT_Jack_Straight</t>
+    <t xml:space="preserve">Jack-DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connectors:BARREL_JACK</t>
   </si>
   <si>
     <t xml:space="preserve">Audio-Jack-2</t>
@@ -157,7 +175,7 @@
     <t xml:space="preserve">Conn_01x02</t>
   </si>
   <si>
-    <t xml:space="preserve">J3,J5,J6,J7</t>
+    <t xml:space="preserve">J3,J5,J6,J7,J13,J14</t>
   </si>
   <si>
     <t xml:space="preserve">Connectors_Terminal_Blocks:TerminalBlock_bornier-2_P5.08mm</t>
@@ -175,25 +193,25 @@
     <t xml:space="preserve">Jumper_NC_Dual</t>
   </si>
   <si>
-    <t xml:space="preserve">JP2,JP1</t>
+    <t xml:space="preserve">JP2,JP1,JP8</t>
   </si>
   <si>
     <t xml:space="preserve">Pin_Headers:Pin_Header_Straight_1x03_Pitch2.54mm</t>
   </si>
   <si>
+    <t xml:space="preserve">Jumper_NC_Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP7,JP3,JP4,JP5,JP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin_Headers:Pin_Header_Straight_1x02_Pitch2.54mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jumper_NO_Small</t>
   </si>
   <si>
-    <t xml:space="preserve">JP3,JP5,JP6,JP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin_Headers:Pin_Header_Straight_1x02_Pitch2.54mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumper_NC_Small</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP7</t>
+    <t xml:space="preserve">JP9,JP10</t>
   </si>
   <si>
     <t xml:space="preserve">SS8550</t>
@@ -208,15 +226,6 @@
     <t xml:space="preserve">C8542</t>
   </si>
   <si>
-    <t xml:space="preserve">MMBT3904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3,Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20526</t>
-  </si>
-  <si>
     <t xml:space="preserve">1k5</t>
   </si>
   <si>
@@ -241,7 +250,7 @@
     <t xml:space="preserve">100R</t>
   </si>
   <si>
-    <t xml:space="preserve">R14,R21,R59,R62,R68</t>
+    <t xml:space="preserve">R14,R21,R59,R62,R67</t>
   </si>
   <si>
     <t xml:space="preserve">C17408</t>
@@ -259,7 +268,7 @@
     <t xml:space="preserve">10k</t>
   </si>
   <si>
-    <t xml:space="preserve">R26,R29,R25,R23,R34,R40,R66,R64,R63</t>
+    <t xml:space="preserve">R26,R29,R65,R34,R40</t>
   </si>
   <si>
     <t xml:space="preserve">C17414</t>
@@ -274,31 +283,40 @@
     <t xml:space="preserve">C17561</t>
   </si>
   <si>
-    <t xml:space="preserve">0R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17477</t>
+    <t xml:space="preserve">18k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30,R35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C17506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4k7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R36,R42,R48,R50,R58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17673</t>
   </si>
   <si>
     <t xml:space="preserve">100k</t>
   </si>
   <si>
-    <t xml:space="preserve">R35,R38,R41,R44,R52,R54</t>
+    <t xml:space="preserve">R38,R44,R22,R24,R64,R66,R68</t>
   </si>
   <si>
     <t xml:space="preserve"> C17407</t>
   </si>
   <si>
-    <t xml:space="preserve">4k7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R36,R42,R48,R50,R58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17673</t>
+    <t xml:space="preserve">22k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R52,R54</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C17560</t>
   </si>
   <si>
     <t xml:space="preserve">1M</t>
@@ -313,22 +331,22 @@
     <t xml:space="preserve">220R</t>
   </si>
   <si>
-    <t xml:space="preserve">R61,R67</t>
+    <t xml:space="preserve">R61</t>
   </si>
   <si>
     <t xml:space="preserve">C17557</t>
   </si>
   <si>
-    <t xml:space="preserve">2k2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8,R13,R10,R15,R20,R17,R24,R27,R28,R22,R30,R37,R39,R43,R45,R49,R53,R51,R55,R57</t>
+    <t xml:space="preserve">1k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R63,R69,R70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8,R13,R10,R15,R20,R17,R27,R28,R37,R39,R43,R45,R49,R53,R51,R55,R57,R23,R25,R31,R41</t>
   </si>
   <si>
     <t xml:space="preserve">Resistors_THT:R_Axial_DIN0207_L6.3mm_D2.5mm_P7.62mm_Horizontal</t>
@@ -379,6 +397,30 @@
     <t xml:space="preserve">C56285</t>
   </si>
   <si>
+    <t xml:space="preserve">KA78M05_TO252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO_SOT_Packages_SMD:TO-252-3_TabPin2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C58069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74HC04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housings_SOIC:SOIC-14_3.9x8.7mm_Pitch1.27mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5590</t>
+  </si>
+  <si>
     <t xml:space="preserve">12 MHz</t>
   </si>
   <si>
@@ -389,9 +431,6 @@
   </si>
   <si>
     <t xml:space="preserve">C9002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#</t>
   </si>
 </sst>
 </file>
@@ -406,7 +445,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -488,17 +526,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="79.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.16"/>
   </cols>
   <sheetData>
@@ -622,45 +660,48 @@
         <v>28</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="0" t="s">
         <v>40</v>
       </c>
     </row>
@@ -727,20 +768,17 @@
         <v>57</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="0" t="s">
         <v>61</v>
       </c>
     </row>
@@ -752,35 +790,32 @@
         <v>63</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="D21" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="C22" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>71</v>
@@ -794,7 +829,7 @@
         <v>73</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>74</v>
@@ -808,7 +843,7 @@
         <v>76</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>77</v>
@@ -822,7 +857,7 @@
         <v>79</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>80</v>
@@ -836,7 +871,7 @@
         <v>82</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>83</v>
@@ -850,7 +885,7 @@
         <v>85</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>86</v>
@@ -864,7 +899,7 @@
         <v>88</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>89</v>
@@ -878,7 +913,7 @@
         <v>91</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>92</v>
@@ -892,7 +927,7 @@
         <v>94</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>95</v>
@@ -906,7 +941,7 @@
         <v>97</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>98</v>
@@ -920,7 +955,7 @@
         <v>100</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>101</v>
@@ -928,32 +963,35 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>103</v>
+        <v>70</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>108</v>
@@ -961,55 +999,103 @@
       <c r="C35" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="C36" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="D37" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="D38" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>123</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/AudioMapperUSB-BOM.xlsx
+++ b/AudioMapperUSB-BOM.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">10 uF</t>
   </si>
   <si>
-    <t xml:space="preserve">C2,C1,C6,C4,C19,C21,C24,C27,C30,C31,C36,C42,C41,C29,C32</t>
+    <t xml:space="preserve">C2,C1,C6,C4,C19,C21,C24,C27,C30,C31,C36,C42,C41</t>
   </si>
   <si>
     <t xml:space="preserve">AudioMapperUSB:CP_1206_HandSoldering</t>
@@ -268,7 +268,7 @@
     <t xml:space="preserve">10k</t>
   </si>
   <si>
-    <t xml:space="preserve">R26,R29,R65,R34,R40</t>
+    <t xml:space="preserve">R26,R29,R65</t>
   </si>
   <si>
     <t xml:space="preserve">C17414</t>
@@ -340,7 +340,7 @@
     <t xml:space="preserve">1k</t>
   </si>
   <si>
-    <t xml:space="preserve">R63,R69,R70</t>
+    <t xml:space="preserve">R63</t>
   </si>
   <si>
     <t xml:space="preserve">C17513</t>
@@ -358,7 +358,7 @@
     <t xml:space="preserve">R9,R11,R16,R18</t>
   </si>
   <si>
-    <t xml:space="preserve"> C17444</t>
+    <t xml:space="preserve">C17444</t>
   </si>
   <si>
     <t xml:space="preserve">AMS1117-3.3</t>
@@ -394,7 +394,23 @@
     <t xml:space="preserve">Housings_SOIC:SOIC-8_3.9x4.9mm_Pitch1.27mm</t>
   </si>
   <si>
-    <t xml:space="preserve">C56285</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">C157708</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">KA78M05_TO252</t>
@@ -440,7 +456,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -460,6 +476,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -504,9 +531,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -528,8 +559,8 @@
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1052,7 +1083,7 @@
       <c r="C39" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1099,6 +1130,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D39" r:id="rId1" display="C157708"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
